--- a/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881DBFD-AC05-42EC-B821-672BAFA2DF00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2673A9-C6C4-4619-9A69-4D53135CBBB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -85,29 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能名を書く</t>
-    <rPh sb="3" eb="6">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特記事項があればここに書く</t>
-    <rPh sb="0" eb="2">
-      <t>トッキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ここに機能の概要を書く</t>
     <rPh sb="3" eb="5">
       <t>キノウ</t>
@@ -125,17 +102,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モンスター育成ゲーム（仮）</t>
+    <t>もんすたーふれんず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分だけのモンスターを育成するモンスター育成ゲーム。
+モンスターを鍛えて能力を上げ、大会で優勝するのが目的です。
+モンスターは育て方次第で様々な姿に進化し、収集要素も実装予定です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
     <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育成</t>
+    <rPh sb="0" eb="2">
       <t>イクセイ</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通勤通学時の際の暇つぶしを目的としたモンスター育成ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図鑑</t>
+    <rPh sb="0" eb="2">
+      <t>ズカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン、ログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -209,7 +218,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -218,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,38 +513,38 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="56.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -548,173 +559,181 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2673A9-C6C4-4619-9A69-4D53135CBBB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10834AC-850E-4F21-AD31-CA19DA85FFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -85,19 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能の概要を書く</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scrum1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,6 +132,140 @@
   </si>
   <si>
     <t>ログイン、ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、パスワードを使ってログイン</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、パスワード、ユーザネームなどを登録する</t>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後最初に立ち上がる画面、前回終了時の状態で表示、ユーザ登録直後ははじめから</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>トウロクチョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力、速さ、体力などを選択して育成</t>
+    <rPh sb="0" eb="1">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大会で1対1戦うイメージ。勝ったら次のレベルの相手と対戦。負けたら鍛えなおして出直し</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>デナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が育てているモンスターと、倒したモンスターが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソダ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ユーザーをレベル順に表示。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -528,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -536,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.25">
@@ -544,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -558,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -590,80 +711,108 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">

--- a/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10834AC-850E-4F21-AD31-CA19DA85FFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577ADC24-E1AC-4AB1-84F6-1CD4B5DE8AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -265,6 +265,26 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1スプリントで実装済み</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2スプリントで実装（7割）</t>
+    <rPh sb="12" eb="13">
+      <t>ワリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -679,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -753,7 +773,9 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -768,7 +790,9 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">

--- a/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577ADC24-E1AC-4AB1-84F6-1CD4B5DE8AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48004438-F8D6-4F6A-8E8F-45C6DB653ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -285,6 +285,13 @@
     <t>第2スプリントで実装（7割）</t>
     <rPh sb="12" eb="13">
       <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3スプリント</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -700,7 +707,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -807,7 +814,9 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
@@ -822,7 +831,9 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">

--- a/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum1_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48004438-F8D6-4F6A-8E8F-45C6DB653ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577ADC24-E1AC-4AB1-84F6-1CD4B5DE8AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -285,13 +285,6 @@
     <t>第2スプリントで実装（7割）</t>
     <rPh sb="12" eb="13">
       <t>ワリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第3スプリント</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -707,7 +700,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -814,9 +807,7 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
@@ -831,9 +822,7 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
